--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efna1-Epha4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efna1-Epha4.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>21.78783233333333</v>
+        <v>17.919643</v>
       </c>
       <c r="H2">
-        <v>65.363497</v>
+        <v>53.75892899999999</v>
       </c>
       <c r="I2">
-        <v>0.9024488799587679</v>
+        <v>0.8982899767221961</v>
       </c>
       <c r="J2">
-        <v>0.9024488799587679</v>
+        <v>0.8982899767221962</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>6.708176333333334</v>
+        <v>6.030956000000001</v>
       </c>
       <c r="N2">
-        <v>20.124529</v>
+        <v>18.092868</v>
       </c>
       <c r="O2">
-        <v>0.4356329228871634</v>
+        <v>0.364814105361131</v>
       </c>
       <c r="P2">
-        <v>0.4356329228871633</v>
+        <v>0.3648141053611309</v>
       </c>
       <c r="Q2">
-        <v>146.1566212131014</v>
+        <v>108.072578468708</v>
       </c>
       <c r="R2">
-        <v>1315.409590917913</v>
+        <v>972.653206218372</v>
       </c>
       <c r="S2">
-        <v>0.3931364433326849</v>
+        <v>0.3277088542127791</v>
       </c>
       <c r="T2">
-        <v>0.3931364433326848</v>
+        <v>0.3277088542127791</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>21.78783233333333</v>
+        <v>17.919643</v>
       </c>
       <c r="H3">
-        <v>65.363497</v>
+        <v>53.75892899999999</v>
       </c>
       <c r="I3">
-        <v>0.9024488799587679</v>
+        <v>0.8982899767221961</v>
       </c>
       <c r="J3">
-        <v>0.9024488799587679</v>
+        <v>0.8982899767221962</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>20.369632</v>
       </c>
       <c r="O3">
-        <v>0.4409386339573907</v>
+        <v>0.4107214552505144</v>
       </c>
       <c r="P3">
-        <v>0.4409386339573907</v>
+        <v>0.4107214552505143</v>
       </c>
       <c r="Q3">
-        <v>147.9367089025671</v>
+        <v>121.6721778271253</v>
       </c>
       <c r="R3">
-        <v>1331.430380123104</v>
+        <v>1095.049600444128</v>
       </c>
       <c r="S3">
-        <v>0.3979245763453964</v>
+        <v>0.3689469664762911</v>
       </c>
       <c r="T3">
-        <v>0.3979245763453964</v>
+        <v>0.368946966476291</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>21.78783233333333</v>
+        <v>17.919643</v>
       </c>
       <c r="H4">
-        <v>65.363497</v>
+        <v>53.75892899999999</v>
       </c>
       <c r="I4">
-        <v>0.9024488799587679</v>
+        <v>0.8982899767221961</v>
       </c>
       <c r="J4">
-        <v>0.9024488799587679</v>
+        <v>0.8982899767221962</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.900636333333334</v>
+        <v>3.710753333333333</v>
       </c>
       <c r="N4">
-        <v>5.701909000000001</v>
+        <v>11.13226</v>
       </c>
       <c r="O4">
-        <v>0.1234284431554459</v>
+        <v>0.2244644393883547</v>
       </c>
       <c r="P4">
-        <v>0.1234284431554459</v>
+        <v>0.2244644393883547</v>
       </c>
       <c r="Q4">
-        <v>41.41074575730811</v>
+        <v>66.49537499439332</v>
       </c>
       <c r="R4">
-        <v>372.696711815773</v>
+        <v>598.4583749495399</v>
       </c>
       <c r="S4">
-        <v>0.1113878602806866</v>
+        <v>0.201634156033126</v>
       </c>
       <c r="T4">
-        <v>0.1113878602806866</v>
+        <v>0.201634156033126</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>4.077019</v>
       </c>
       <c r="I5">
-        <v>0.05628984676448105</v>
+        <v>0.06812533974785755</v>
       </c>
       <c r="J5">
-        <v>0.05628984676448104</v>
+        <v>0.06812533974785755</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>6.708176333333334</v>
+        <v>6.030956000000001</v>
       </c>
       <c r="N5">
-        <v>20.124529</v>
+        <v>18.092868</v>
       </c>
       <c r="O5">
-        <v>0.4356329228871634</v>
+        <v>0.364814105361131</v>
       </c>
       <c r="P5">
-        <v>0.4356329228871633</v>
+        <v>0.3648141053611309</v>
       </c>
       <c r="Q5">
-        <v>9.116454122116778</v>
+        <v>8.196107400054668</v>
       </c>
       <c r="R5">
-        <v>82.048087099051</v>
+        <v>73.76496660049202</v>
       </c>
       <c r="S5">
-        <v>0.02452171047488141</v>
+        <v>0.02485308487253774</v>
       </c>
       <c r="T5">
-        <v>0.02452171047488141</v>
+        <v>0.02485308487253774</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>4.077019</v>
       </c>
       <c r="I6">
-        <v>0.05628984676448105</v>
+        <v>0.06812533974785755</v>
       </c>
       <c r="J6">
-        <v>0.05628984676448104</v>
+        <v>0.06812533974785755</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>20.369632</v>
       </c>
       <c r="O6">
-        <v>0.4409386339573907</v>
+        <v>0.4107214552505144</v>
       </c>
       <c r="P6">
-        <v>0.4409386339573907</v>
+        <v>0.4107214552505143</v>
       </c>
       <c r="Q6">
         <v>9.227486298556444</v>
@@ -818,10 +818,10 @@
         <v>83.047376687008</v>
       </c>
       <c r="S6">
-        <v>0.02482036813800112</v>
+        <v>0.02798053868067576</v>
       </c>
       <c r="T6">
-        <v>0.02482036813800112</v>
+        <v>0.02798053868067575</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>4.077019</v>
       </c>
       <c r="I7">
-        <v>0.05628984676448105</v>
+        <v>0.06812533974785755</v>
       </c>
       <c r="J7">
-        <v>0.05628984676448104</v>
+        <v>0.06812533974785755</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.900636333333334</v>
+        <v>3.710753333333333</v>
       </c>
       <c r="N7">
-        <v>5.701909000000001</v>
+        <v>11.13226</v>
       </c>
       <c r="O7">
-        <v>0.1234284431554459</v>
+        <v>0.2244644393883547</v>
       </c>
       <c r="P7">
-        <v>0.1234284431554459</v>
+        <v>0.2244644393883547</v>
       </c>
       <c r="Q7">
-        <v>2.582976814363445</v>
+        <v>5.042937281437777</v>
       </c>
       <c r="R7">
-        <v>23.246791329271</v>
+        <v>45.38643553293999</v>
       </c>
       <c r="S7">
-        <v>0.00694776815159851</v>
+        <v>0.01529171619464404</v>
       </c>
       <c r="T7">
-        <v>0.006947768151598508</v>
+        <v>0.01529171619464404</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.9961713333333333</v>
+        <v>0.669968</v>
       </c>
       <c r="H8">
-        <v>2.988514</v>
+        <v>2.009904</v>
       </c>
       <c r="I8">
-        <v>0.04126127327675105</v>
+        <v>0.03358468352994624</v>
       </c>
       <c r="J8">
-        <v>0.04126127327675105</v>
+        <v>0.03358468352994624</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>6.708176333333334</v>
+        <v>6.030956000000001</v>
       </c>
       <c r="N8">
-        <v>20.124529</v>
+        <v>18.092868</v>
       </c>
       <c r="O8">
-        <v>0.4356329228871634</v>
+        <v>0.364814105361131</v>
       </c>
       <c r="P8">
-        <v>0.4356329228871633</v>
+        <v>0.3648141053611309</v>
       </c>
       <c r="Q8">
-        <v>6.682492962211779</v>
+        <v>4.040547529408</v>
       </c>
       <c r="R8">
-        <v>60.142436659906</v>
+        <v>36.36492776467201</v>
       </c>
       <c r="S8">
-        <v>0.01797476907959707</v>
+        <v>0.01225216627581405</v>
       </c>
       <c r="T8">
-        <v>0.01797476907959706</v>
+        <v>0.01225216627581405</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.9961713333333333</v>
+        <v>0.669968</v>
       </c>
       <c r="H9">
-        <v>2.988514</v>
+        <v>2.009904</v>
       </c>
       <c r="I9">
-        <v>0.04126127327675105</v>
+        <v>0.03358468352994624</v>
       </c>
       <c r="J9">
-        <v>0.04126127327675105</v>
+        <v>0.03358468352994624</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>20.369632</v>
       </c>
       <c r="O9">
-        <v>0.4409386339573907</v>
+        <v>0.4107214552505144</v>
       </c>
       <c r="P9">
-        <v>0.4409386339573907</v>
+        <v>0.4107214552505143</v>
       </c>
       <c r="Q9">
-        <v>6.763881156316444</v>
+        <v>4.549000537258666</v>
       </c>
       <c r="R9">
-        <v>60.87493040684799</v>
+        <v>40.941004835328</v>
       </c>
       <c r="S9">
-        <v>0.0181936894739932</v>
+        <v>0.0137939500935475</v>
       </c>
       <c r="T9">
-        <v>0.0181936894739932</v>
+        <v>0.0137939500935475</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.9961713333333333</v>
+        <v>0.669968</v>
       </c>
       <c r="H10">
-        <v>2.988514</v>
+        <v>2.009904</v>
       </c>
       <c r="I10">
-        <v>0.04126127327675105</v>
+        <v>0.03358468352994624</v>
       </c>
       <c r="J10">
-        <v>0.04126127327675105</v>
+        <v>0.03358468352994624</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.900636333333334</v>
+        <v>3.710753333333333</v>
       </c>
       <c r="N10">
-        <v>5.701909000000001</v>
+        <v>11.13226</v>
       </c>
       <c r="O10">
-        <v>0.1234284431554459</v>
+        <v>0.2244644393883547</v>
       </c>
       <c r="P10">
-        <v>0.1234284431554459</v>
+        <v>0.2244644393883547</v>
       </c>
       <c r="Q10">
-        <v>1.893359430358445</v>
+        <v>2.486085989226666</v>
       </c>
       <c r="R10">
-        <v>17.040234873226</v>
+        <v>22.37477390304</v>
       </c>
       <c r="S10">
-        <v>0.005092814723160788</v>
+        <v>0.007538567160584693</v>
       </c>
       <c r="T10">
-        <v>0.005092814723160786</v>
+        <v>0.007538567160584692</v>
       </c>
     </row>
   </sheetData>
